--- a/replication_package/dataset_quantum-enabled_projects.xlsx
+++ b/replication_package/dataset_quantum-enabled_projects.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\lavoro_di_ricerca\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Cross_Sectional_Analysis_of_Quantum_Specific_Code_Smells_in_Open_Source_Software_Communities_RP\replication_package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C967A8-3850-4CAE-AABF-91E08DBE79E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC165072-5C1C-492C-A221-7994E15A5B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4603,7 +4603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
